--- a/efficiencies.xlsx
+++ b/efficiencies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javi/Documents/Padova/Research.nosync/ResearchActivities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D1594-E30E-7541-8FEF-B833185494E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58407259-0DF6-D544-95FB-DF359468E19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33300" yWindow="1100" windowWidth="25440" windowHeight="14900" xr2:uid="{0698736A-FFBC-6246-9AAE-BD1A23F1A5CB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{0698736A-FFBC-6246-9AAE-BD1A23F1A5CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>HLT_Mu17_Photon30</t>
   </si>
@@ -135,6 +135,42 @@
   </si>
   <si>
     <t>38.75%</t>
+  </si>
+  <si>
+    <t>0.00002%</t>
+  </si>
+  <si>
+    <t>Muon1.pt &gt; 17.5,  Photon.pt &gt; 23.5, 2.25&lt;m(JPsi)&lt;3.5</t>
+  </si>
+  <si>
+    <t>25.13%</t>
+  </si>
+  <si>
+    <t>Muon1.pt &gt; 15.,  Photon.pt &gt; 23.5, 2.7&lt;m(JPsi)&lt;3.5</t>
+  </si>
+  <si>
+    <t>0.00005%</t>
+  </si>
+  <si>
+    <t>26.31%</t>
+  </si>
+  <si>
+    <t>37.68%</t>
+  </si>
+  <si>
+    <t>37.61%</t>
+  </si>
+  <si>
+    <t>Muon1.pt &gt; 20, Photon.pt &gt; 26.3, dR(mumu) &lt; 0.35</t>
+  </si>
+  <si>
+    <t>0.00008%</t>
+  </si>
+  <si>
+    <t>22.34%</t>
+  </si>
+  <si>
+    <t>36.62%</t>
   </si>
 </sst>
 </file>
@@ -695,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9626799-14FE-BA40-A51E-6B2121EA562C}">
-  <dimension ref="C4:N16"/>
+  <dimension ref="C4:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -924,17 +960,88 @@
         <v>32</v>
       </c>
     </row>
+    <row r="18" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F18" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="G22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="H24" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I26" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I27" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="I28" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="H18:I18"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="H12:I12"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:K4"/>
   </mergeCells>
   <conditionalFormatting sqref="G7:K9">
     <cfRule type="colorScale" priority="1">

--- a/efficiencies.xlsx
+++ b/efficiencies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javi/Documents/Padova/Research.nosync/ResearchActivities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58407259-0DF6-D544-95FB-DF359468E19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C9CF50-CBEA-6249-8E30-9F230D5490DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{0698736A-FFBC-6246-9AAE-BD1A23F1A5CB}"/>
+    <workbookView xWindow="-38400" yWindow="-1380" windowWidth="38400" windowHeight="21100" xr2:uid="{0698736A-FFBC-6246-9AAE-BD1A23F1A5CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
   <si>
     <t>HLT_Mu17_Photon30</t>
   </si>
   <si>
-    <t>Simulated</t>
-  </si>
-  <si>
     <t>Muon1.pt &gt; 15, Muon2.pt &gt; 10, Photon.pt &gt; 15</t>
   </si>
   <si>
@@ -68,116 +65,170 @@
     <t>trigger</t>
   </si>
   <si>
-    <t>Calculated</t>
-  </si>
-  <si>
-    <t>76.47%</t>
-  </si>
-  <si>
-    <t>0.00016%</t>
-  </si>
-  <si>
-    <t>82.97%</t>
-  </si>
-  <si>
-    <t>21.49%</t>
-  </si>
-  <si>
-    <t>88.49%</t>
-  </si>
-  <si>
-    <t>35.85%</t>
-  </si>
-  <si>
-    <t>0.00044%</t>
-  </si>
-  <si>
-    <t>20.55%</t>
-  </si>
-  <si>
-    <t>28.65%</t>
-  </si>
-  <si>
-    <t>0.00022%</t>
-  </si>
-  <si>
-    <t>20.11%</t>
-  </si>
-  <si>
-    <t>28.28%</t>
-  </si>
-  <si>
-    <t>0.00013%</t>
-  </si>
-  <si>
-    <t>19.35%</t>
-  </si>
-  <si>
-    <t>27.69%</t>
-  </si>
-  <si>
-    <t>0.00014%</t>
-  </si>
-  <si>
-    <t>24.73%</t>
-  </si>
-  <si>
-    <t>37.65%</t>
-  </si>
-  <si>
     <t>Muon1.pt &gt; 18, Photon.pt &gt; 24, dR(mumu) &lt; 0.4</t>
   </si>
   <si>
     <t>Muon1.pt &gt; 15,  Photon.pt &gt; 20, 2&lt;m(JPsi)&lt;4</t>
   </si>
   <si>
-    <t>27.42%</t>
-  </si>
-  <si>
-    <t>38.75%</t>
-  </si>
-  <si>
-    <t>0.00002%</t>
-  </si>
-  <si>
     <t>Muon1.pt &gt; 17.5,  Photon.pt &gt; 23.5, 2.25&lt;m(JPsi)&lt;3.5</t>
   </si>
   <si>
-    <t>25.13%</t>
-  </si>
-  <si>
     <t>Muon1.pt &gt; 15.,  Photon.pt &gt; 23.5, 2.7&lt;m(JPsi)&lt;3.5</t>
   </si>
   <si>
-    <t>0.00005%</t>
-  </si>
-  <si>
-    <t>26.31%</t>
-  </si>
-  <si>
-    <t>37.68%</t>
-  </si>
-  <si>
-    <t>37.61%</t>
-  </si>
-  <si>
     <t>Muon1.pt &gt; 20, Photon.pt &gt; 26.3, dR(mumu) &lt; 0.35</t>
   </si>
   <si>
-    <t>0.00008%</t>
-  </si>
-  <si>
-    <t>22.34%</t>
-  </si>
-  <si>
-    <t>36.62%</t>
+    <t>SIMULATED</t>
+  </si>
+  <si>
+    <t>CALCULATED</t>
+  </si>
+  <si>
+    <t>Muon1.pt &gt; 12, Muon2.pt &gt; 8, Photon.pt &gt; 20, 2&lt;m(JPsi)&lt;4</t>
+  </si>
+  <si>
+    <t>Muon1.pt &gt; 15, Muon2.pt &gt; 5, Photon.pt &gt; 20, 2&lt;m(JPsi)&lt;4</t>
+  </si>
+  <si>
+    <t>Muon1.pt &gt; 10, Muon2.pt &gt; 5, Photon.pt &gt; 20, 2&lt;m(JPsi)&lt;4</t>
+  </si>
+  <si>
+    <t>Muon1.pt &gt; 10, Muon2.pt &gt; 10, Photon.pt &gt; 20, 2&lt;m(JPsi)&lt;4</t>
+  </si>
+  <si>
+    <t>Muon1.pt &gt; 17.5, Muon2.pt &gt; 5, Photon.pt &gt; 27.5, 2&lt;m(JPsi)&lt;4</t>
+  </si>
+  <si>
+    <t>76.47</t>
+  </si>
+  <si>
+    <t>0.00016</t>
+  </si>
+  <si>
+    <t>0.00044</t>
+  </si>
+  <si>
+    <t>0.00022</t>
+  </si>
+  <si>
+    <t>0.00013</t>
+  </si>
+  <si>
+    <t>82.97</t>
+  </si>
+  <si>
+    <t>21.49</t>
+  </si>
+  <si>
+    <t>20.55</t>
+  </si>
+  <si>
+    <t>20.11</t>
+  </si>
+  <si>
+    <t>19.35</t>
+  </si>
+  <si>
+    <t>88.49</t>
+  </si>
+  <si>
+    <t>35.85</t>
+  </si>
+  <si>
+    <t>28.65</t>
+  </si>
+  <si>
+    <t>28.28</t>
+  </si>
+  <si>
+    <t>27.69</t>
+  </si>
+  <si>
+    <t>0.00014</t>
+  </si>
+  <si>
+    <t>0.00008</t>
+  </si>
+  <si>
+    <t>24.73</t>
+  </si>
+  <si>
+    <t>22.34</t>
+  </si>
+  <si>
+    <t>37.65</t>
+  </si>
+  <si>
+    <t>36.62</t>
+  </si>
+  <si>
+    <t>0.00002</t>
+  </si>
+  <si>
+    <t>0.00005</t>
+  </si>
+  <si>
+    <t>27.42</t>
+  </si>
+  <si>
+    <t>25.13</t>
+  </si>
+  <si>
+    <t>26.31</t>
+  </si>
+  <si>
+    <t>38.75</t>
+  </si>
+  <si>
+    <t>37.61</t>
+  </si>
+  <si>
+    <t>37.68</t>
+  </si>
+  <si>
+    <t>0.00021</t>
+  </si>
+  <si>
+    <t>28.96</t>
+  </si>
+  <si>
+    <t>39.30</t>
+  </si>
+  <si>
+    <t>0.00011</t>
+  </si>
+  <si>
+    <t>0.00007</t>
+  </si>
+  <si>
+    <t>24.24</t>
+  </si>
+  <si>
+    <t>20.77</t>
+  </si>
+  <si>
+    <t>23.98</t>
+  </si>
+  <si>
+    <t>32.46</t>
+  </si>
+  <si>
+    <t>28.37</t>
+  </si>
+  <si>
+    <t>36.95</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,9 +237,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,7 +283,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -211,17 +292,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -233,17 +303,6 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -318,26 +377,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -364,62 +403,259 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Total" xfId="1" builtinId="25"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -731,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9626799-14FE-BA40-A51E-6B2121EA562C}">
-  <dimension ref="C4:N28"/>
+  <dimension ref="C4:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,309 +978,646 @@
     <col min="3" max="3" width="8.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.83203125" style="1" customWidth="1"/>
-    <col min="12" max="14" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="34.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="36" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="27.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="35.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="29.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="39.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="37.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C4" s="6"/>
-      <c r="D4" s="13" t="s">
+    <row r="4" spans="3:15" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="3"/>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="C5" s="3"/>
+      <c r="D5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="13" t="s">
+      <c r="G5" s="25"/>
+      <c r="H5" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="30"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C6" s="4"/>
+      <c r="D6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C7" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="32"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="19"/>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="32"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="32"/>
+    </row>
+    <row r="10" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="C10" s="3"/>
+      <c r="D10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="33"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C11" s="4"/>
+      <c r="D11" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="31"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="32"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="19"/>
+      <c r="G13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="32"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="32"/>
+    </row>
+    <row r="15" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="C15" s="3"/>
+      <c r="D15" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C5" s="2"/>
-      <c r="D5" s="12" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="34"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C16" s="4"/>
+      <c r="D16" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="31"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="19"/>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="32"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="32"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="19"/>
+      <c r="G19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="32"/>
+    </row>
+    <row r="20" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="C20" s="4"/>
+      <c r="D20" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12" t="s">
+      <c r="E20" s="22"/>
+      <c r="F20" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="29"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C21" s="4"/>
+      <c r="D21" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N21" s="2"/>
+      <c r="O21" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="19"/>
+      <c r="G22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" s="20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="12"/>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C6" s="2"/>
-      <c r="D6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="D23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="19"/>
+      <c r="G23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" s="20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="D25" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="O25" s="28"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="D26" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C7" s="5" t="s">
+      <c r="E26" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="28"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C27" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="28"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="C28" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="O28" s="28"/>
+    </row>
+    <row r="29" spans="3:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J7" s="9"/>
-      <c r="K7" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="D13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="D29" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.2">
-      <c r="C16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="E29" s="24" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="F18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="G22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="H24" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="I25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="I26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="I27" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.2">
-      <c r="I28" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="O29" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="F18:G18"/>
+  <mergeCells count="20">
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="F4:O4"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="J5:K5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H15:I15"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F15:G15"/>
     <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <conditionalFormatting sqref="G7:K9">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1055,6 +1628,49 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G8:K9">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{94FC4F4E-669F-FE47-8DF2-777422D46E0B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{94FC4F4E-669F-FE47-8DF2-777422D46E0B}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G8:K9</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/efficiencies.xlsx
+++ b/efficiencies.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javi/Documents/Padova/Research.nosync/ResearchActivities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C9CF50-CBEA-6249-8E30-9F230D5490DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79699CB1-DED6-5946-85D6-DBBE8FAFC328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-1380" windowWidth="38400" windowHeight="21100" xr2:uid="{0698736A-FFBC-6246-9AAE-BD1A23F1A5CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
   <si>
     <t>HLT_Mu17_Photon30</t>
   </si>
@@ -219,6 +219,15 @@
   </si>
   <si>
     <t>36.95</t>
+  </si>
+  <si>
+    <t>Muon1.pt &gt; 10, Muon2.pt &gt; 5, Photon.pt &gt; 22.7 2&lt;m(JPsi)&lt;4</t>
+  </si>
+  <si>
+    <t>28.21</t>
+  </si>
+  <si>
+    <t>38.90</t>
   </si>
 </sst>
 </file>
@@ -226,7 +235,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -546,10 +555,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -569,36 +578,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -611,31 +599,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -650,6 +623,45 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -967,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9626799-14FE-BA40-A51E-6B2121EA562C}">
-  <dimension ref="C4:O29"/>
+  <dimension ref="C4:Q29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -988,59 +1000,61 @@
     <col min="13" max="13" width="39.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="37.33203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="33.1640625" customWidth="1"/>
+    <col min="16" max="16" width="36" customWidth="1"/>
+    <col min="17" max="17" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:15" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="8"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="32"/>
     </row>
     <row r="5" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="34"/>
+      <c r="F5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25" t="s">
+      <c r="G5" s="26"/>
+      <c r="H5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="26"/>
+      <c r="J5" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="30"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="18"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C6" s="4"/>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>8</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -1061,19 +1075,19 @@
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
-      <c r="O6" s="31"/>
+      <c r="O6" s="19"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="19"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
@@ -1088,19 +1102,19 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="32"/>
+      <c r="O7" s="20"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="19"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1115,19 +1129,19 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="32"/>
+      <c r="O8" s="20"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="19"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1142,38 +1156,38 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="32"/>
+      <c r="O9" s="20"/>
     </row>
     <row r="10" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="21" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10" t="s">
+      <c r="G10" s="24"/>
+      <c r="H10" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="33"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="21"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C11" s="4"/>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="17"/>
+      <c r="E11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="10"/>
       <c r="G11" s="6" t="s">
         <v>7</v>
       </c>
@@ -1186,19 +1200,19 @@
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
-      <c r="O11" s="31"/>
+      <c r="O11" s="19"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="19"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="2" t="s">
         <v>36</v>
       </c>
@@ -1211,19 +1225,19 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="32"/>
+      <c r="O12" s="20"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="2" t="s">
         <v>38</v>
       </c>
@@ -1236,19 +1250,19 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="32"/>
+      <c r="O13" s="20"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C14" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="2" t="s">
         <v>40</v>
       </c>
@@ -1261,40 +1275,40 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="32"/>
+      <c r="O14" s="20"/>
     </row>
     <row r="15" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21" t="s">
+      <c r="E15" s="28"/>
+      <c r="F15" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10" t="s">
+      <c r="G15" s="24"/>
+      <c r="H15" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10" t="s">
+      <c r="I15" s="24"/>
+      <c r="J15" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="34"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="22"/>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C16" s="4"/>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="17"/>
+      <c r="E16" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="10"/>
       <c r="G16" s="6" t="s">
         <v>7</v>
       </c>
@@ -1309,19 +1323,19 @@
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="31"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="2" t="s">
         <v>25</v>
       </c>
@@ -1336,19 +1350,19 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="32"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="2" t="s">
         <v>44</v>
       </c>
@@ -1363,19 +1377,19 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="32"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1390,44 +1404,48 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="32"/>
-    </row>
-    <row r="20" spans="3:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O19" s="20"/>
+    </row>
+    <row r="20" spans="3:17" ht="17" x14ac:dyDescent="0.2">
       <c r="C20" s="4"/>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="21" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="9" t="s">
+      <c r="G20" s="27"/>
+      <c r="H20" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="10"/>
-      <c r="J20" s="26" t="s">
+      <c r="I20" s="24"/>
+      <c r="J20" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26" t="s">
+      <c r="K20" s="29"/>
+      <c r="L20" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26" t="s">
+      <c r="M20" s="29"/>
+      <c r="N20" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="29"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="30"/>
+      <c r="P20" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q20" s="30"/>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="4"/>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F21" s="17"/>
+      <c r="E21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="10"/>
       <c r="G21" s="6" t="s">
         <v>7</v>
       </c>
@@ -1444,21 +1462,25 @@
         <v>7</v>
       </c>
       <c r="N21" s="2"/>
-      <c r="O21" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="19"/>
+      <c r="F22" s="12"/>
       <c r="G22" s="2" t="s">
         <v>50</v>
       </c>
@@ -1475,21 +1497,25 @@
         <v>54</v>
       </c>
       <c r="N22" s="2"/>
-      <c r="O22" s="20" t="s">
+      <c r="O22" s="13" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="35"/>
+      <c r="Q22" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="19"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="2" t="s">
         <v>51</v>
       </c>
@@ -1506,21 +1532,25 @@
         <v>56</v>
       </c>
       <c r="N23" s="2"/>
-      <c r="O23" s="20" t="s">
+      <c r="O23" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="35"/>
+      <c r="Q23" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="17"/>
+      <c r="F24" s="10"/>
       <c r="G24" s="6" t="s">
         <v>52</v>
       </c>
@@ -1537,65 +1567,72 @@
         <v>59</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="20" t="s">
+      <c r="O24" s="13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="D25" s="21" t="s">
+      <c r="P24" s="35"/>
+      <c r="Q24" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="D25" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="O25" s="28"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D26" s="17" t="s">
+      <c r="E25" s="28"/>
+      <c r="O25" s="17"/>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="D26" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="O26" s="28"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="E26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="O26" s="17"/>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="O27" s="28"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="G27" s="2"/>
+      <c r="O27" s="17"/>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="O28" s="28"/>
-    </row>
-    <row r="29" spans="3:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="2"/>
+      <c r="O28" s="17"/>
+    </row>
+    <row r="29" spans="3:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O29" s="28"/>
+      <c r="G29" s="6"/>
+      <c r="O29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="D25:E25"/>
+  <mergeCells count="21">
+    <mergeCell ref="P20:Q20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="N20:O20"/>
@@ -1615,6 +1652,7 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <conditionalFormatting sqref="G7:K9">
     <cfRule type="colorScale" priority="3">

--- a/efficiencies.xlsx
+++ b/efficiencies.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/javi/Documents/Padova/Research.nosync/ResearchActivities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79699CB1-DED6-5946-85D6-DBBE8FAFC328}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{592A2766-2DB1-A04C-A267-E4B9D2C8E445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-1380" windowWidth="38400" windowHeight="21100" xr2:uid="{0698736A-FFBC-6246-9AAE-BD1A23F1A5CB}"/>
+    <workbookView xWindow="-38400" yWindow="-1380" windowWidth="19200" windowHeight="21100" xr2:uid="{0698736A-FFBC-6246-9AAE-BD1A23F1A5CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Tables to present" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="78">
   <si>
     <t>HLT_Mu17_Photon30</t>
   </si>
@@ -228,6 +229,48 @@
   </si>
   <si>
     <t>38.90</t>
+  </si>
+  <si>
+    <t>Muon1.pt &gt; 10, Muon2.pt &gt; 5, Photon.pt &gt; 15, 2&lt;m(JPsi)&lt;4</t>
+  </si>
+  <si>
+    <t>Total number of events generated</t>
+  </si>
+  <si>
+    <t>efficiencies</t>
+  </si>
+  <si>
+    <t>column 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # total events</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # events passing selection</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> # events passing HLT &amp;  selection</t>
+  </si>
+  <si>
+    <t>Selection efficiencies (\%)</t>
+  </si>
+  <si>
+    <t>0.00016(3)</t>
+  </si>
+  <si>
+    <t>21.49(8)</t>
+  </si>
+  <si>
+    <t>35.8(1)</t>
+  </si>
+  <si>
+    <t>0.00044(5)</t>
+  </si>
+  <si>
+    <t>20.55(7)</t>
+  </si>
+  <si>
+    <t>28.65(9)</t>
   </si>
 </sst>
 </file>
@@ -237,7 +280,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,14 +306,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="4"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -283,16 +318,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -552,13 +623,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -578,13 +681,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -605,11 +708,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -618,34 +721,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -654,18 +748,154 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="17" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="5" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
@@ -979,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9626799-14FE-BA40-A51E-6B2121EA562C}">
-  <dimension ref="C4:Q29"/>
+  <dimension ref="C4:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView tabSelected="1" topLeftCell="O6" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1002,45 +1232,47 @@
     <col min="15" max="15" width="33.1640625" customWidth="1"/>
     <col min="16" max="16" width="36" customWidth="1"/>
     <col min="17" max="17" width="34.33203125" customWidth="1"/>
+    <col min="18" max="18" width="31.33203125" customWidth="1"/>
+    <col min="19" max="19" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="3:15" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C4" s="3"/>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="32"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="29"/>
     </row>
     <row r="5" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C5" s="3"/>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="E5" s="34"/>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26" t="s">
+      <c r="G5" s="43"/>
+      <c r="H5" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26" t="s">
+      <c r="I5" s="31"/>
+      <c r="J5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="26"/>
+      <c r="K5" s="31"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
       <c r="N5" s="16"/>
@@ -1054,10 +1286,10 @@
       <c r="E6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="45" t="s">
         <v>7</v>
       </c>
       <c r="H6" s="6" t="s">
@@ -1087,8 +1319,8 @@
       <c r="E7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="47" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="2"/>
@@ -1114,8 +1346,8 @@
       <c r="E8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="2" t="s">
+      <c r="F8" s="46"/>
+      <c r="G8" s="47" t="s">
         <v>28</v>
       </c>
       <c r="H8" s="2"/>
@@ -1141,8 +1373,8 @@
       <c r="E9" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="2" t="s">
+      <c r="F9" s="46"/>
+      <c r="G9" s="47" t="s">
         <v>33</v>
       </c>
       <c r="H9" s="2"/>
@@ -1160,18 +1392,18 @@
     </row>
     <row r="10" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C10" s="3"/>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="27"/>
+      <c r="F10" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24" t="s">
+      <c r="G10" s="35"/>
+      <c r="H10" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
@@ -1187,8 +1419,8 @@
       <c r="E11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="6" t="s">
+      <c r="F11" s="51"/>
+      <c r="G11" s="36" t="s">
         <v>7</v>
       </c>
       <c r="H11" s="6"/>
@@ -1212,8 +1444,8 @@
       <c r="E12" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="52"/>
+      <c r="G12" s="37" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="2"/>
@@ -1237,8 +1469,8 @@
       <c r="E13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="2" t="s">
+      <c r="F13" s="52"/>
+      <c r="G13" s="37" t="s">
         <v>38</v>
       </c>
       <c r="H13" s="2"/>
@@ -1262,8 +1494,8 @@
       <c r="E14" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="2" t="s">
+      <c r="F14" s="52"/>
+      <c r="G14" s="37" t="s">
         <v>40</v>
       </c>
       <c r="H14" s="2"/>
@@ -1279,22 +1511,22 @@
     </row>
     <row r="15" spans="3:15" ht="17" x14ac:dyDescent="0.2">
       <c r="C15" s="3"/>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="23" t="s">
+      <c r="E15" s="27"/>
+      <c r="F15" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24" t="s">
+      <c r="G15" s="35"/>
+      <c r="H15" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24" t="s">
+      <c r="I15" s="30"/>
+      <c r="J15" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="K15" s="24"/>
+      <c r="K15" s="57"/>
       <c r="L15" s="9"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
@@ -1308,16 +1540,15 @@
       <c r="E16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="51"/>
+      <c r="G16" s="36" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L16" s="6"/>
@@ -1325,7 +1556,7 @@
       <c r="N16" s="6"/>
       <c r="O16" s="19"/>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1335,16 +1566,15 @@
       <c r="E17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="2" t="s">
+      <c r="F17" s="52"/>
+      <c r="G17" s="37" t="s">
         <v>25</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="L17" s="2"/>
@@ -1352,7 +1582,7 @@
       <c r="N17" s="2"/>
       <c r="O17" s="20"/>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
@@ -1362,16 +1592,15 @@
       <c r="E18" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="2" t="s">
+      <c r="F18" s="52"/>
+      <c r="G18" s="37" t="s">
         <v>44</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="L18" s="2"/>
@@ -1379,7 +1608,7 @@
       <c r="N18" s="2"/>
       <c r="O18" s="20"/>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="5" t="s">
         <v>6</v>
       </c>
@@ -1389,16 +1618,15 @@
       <c r="E19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="2" t="s">
+      <c r="F19" s="52"/>
+      <c r="G19" s="37" t="s">
         <v>47</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="L19" s="2"/>
@@ -1406,38 +1634,42 @@
       <c r="N19" s="2"/>
       <c r="O19" s="20"/>
     </row>
-    <row r="20" spans="3:17" ht="17" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:19" ht="17" x14ac:dyDescent="0.2">
       <c r="C20" s="4"/>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E20" s="28"/>
-      <c r="F20" s="23" t="s">
+      <c r="E20" s="27"/>
+      <c r="F20" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="33" t="s">
+      <c r="G20" s="30"/>
+      <c r="H20" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="29" t="s">
+      <c r="I20" s="30"/>
+      <c r="J20" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29" t="s">
+      <c r="K20" s="24"/>
+      <c r="L20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="29"/>
-      <c r="N20" s="29" t="s">
+      <c r="M20" s="24"/>
+      <c r="N20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="O20" s="30"/>
-      <c r="P20" s="29" t="s">
+      <c r="O20" s="25"/>
+      <c r="P20" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="Q20" s="30"/>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q20" s="54"/>
+      <c r="R20" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="S20" s="49"/>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="4"/>
       <c r="D21" s="10" t="s">
         <v>8</v>
@@ -1445,8 +1677,7 @@
       <c r="E21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H21" s="6"/>
@@ -1465,12 +1696,16 @@
       <c r="O21" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="13" t="s">
+      <c r="P21" s="37"/>
+      <c r="Q21" s="55" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="38"/>
+      <c r="S21" s="39" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
@@ -1480,8 +1715,7 @@
       <c r="E22" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="H22" s="2"/>
@@ -1500,12 +1734,16 @@
       <c r="O22" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="13" t="s">
+      <c r="P22" s="56"/>
+      <c r="Q22" s="55" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="40"/>
+      <c r="S22" s="41">
+        <v>4.4999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="4" t="s">
         <v>4</v>
       </c>
@@ -1515,8 +1753,7 @@
       <c r="E23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H23" s="2"/>
@@ -1535,12 +1772,16 @@
       <c r="O23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="13" t="s">
+      <c r="P23" s="56"/>
+      <c r="Q23" s="55" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="40"/>
+      <c r="S23" s="41">
+        <v>29.83</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
         <v>6</v>
       </c>
@@ -1550,8 +1791,7 @@
       <c r="E24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H24" s="6"/>
@@ -1570,19 +1810,23 @@
       <c r="O24" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="13" t="s">
+      <c r="P24" s="56"/>
+      <c r="Q24" s="55" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" ht="17" x14ac:dyDescent="0.2">
-      <c r="D25" s="23" t="s">
+      <c r="R24" s="38"/>
+      <c r="S24" s="39">
+        <v>39.81</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" ht="17" x14ac:dyDescent="0.2">
+      <c r="D25" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="E25" s="28"/>
+      <c r="E25" s="27"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="D26" s="10" t="s">
         <v>8</v>
       </c>
@@ -1591,7 +1835,7 @@
       </c>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="4" t="s">
         <v>5</v>
       </c>
@@ -1604,7 +1848,7 @@
       <c r="G27" s="2"/>
       <c r="O27" s="17"/>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="4" t="s">
         <v>4</v>
       </c>
@@ -1617,7 +1861,7 @@
       <c r="G28" s="2"/>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" spans="3:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C29" s="5" t="s">
         <v>6</v>
       </c>
@@ -1631,7 +1875,13 @@
       <c r="O29" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="22">
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="P20:Q20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="D20:E20"/>
@@ -1648,11 +1898,6 @@
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D25:E25"/>
   </mergeCells>
   <conditionalFormatting sqref="G7:K9">
     <cfRule type="colorScale" priority="3">
@@ -1711,4 +1956,265 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BF0B4B1-D2D1-3248-A97F-F10FDEA78D05}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12:G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="21.1640625" customWidth="1"/>
+    <col min="6" max="6" width="31.83203125" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" customWidth="1"/>
+    <col min="8" max="8" width="40.6640625" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="62"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" s="70"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="65">
+        <v>21335910</v>
+      </c>
+      <c r="B3" s="66">
+        <v>459000</v>
+      </c>
+      <c r="C3" s="67">
+        <v>448000</v>
+      </c>
+      <c r="E3" s="63"/>
+      <c r="F3" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="58">
+        <v>21335910</v>
+      </c>
+      <c r="G4" s="58">
+        <v>34</v>
+      </c>
+      <c r="H4" s="58">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="71" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="58">
+        <v>459000</v>
+      </c>
+      <c r="G5" s="58">
+        <v>98630</v>
+      </c>
+      <c r="H5" s="58">
+        <v>81829</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="71" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="66">
+        <v>448000</v>
+      </c>
+      <c r="G6" s="66">
+        <v>160587</v>
+      </c>
+      <c r="H6" s="66">
+        <v>142102</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="76"/>
+      <c r="F12" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="77"/>
+      <c r="H12" s="75"/>
+    </row>
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E13" s="76"/>
+      <c r="F13" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="74"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F12:G12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G14:G16">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15:G16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0C23AB8C-0A35-3240-A091-C3C1D0C0DAC3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0C23AB8C-0A35-3240-A091-C3C1D0C0DAC3}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G15:G16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>